--- a/data/financial_statements/sofp/PAYX.xlsx
+++ b/data/financial_statements/sofp/PAYX.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>2022-11-30</t>
+  </si>
+  <si>
+    <t>2022-08-31</t>
+  </si>
+  <si>
+    <t>2022-05-31</t>
+  </si>
+  <si>
+    <t>2022-02-28</t>
+  </si>
+  <si>
+    <t>2021-11-30</t>
+  </si>
+  <si>
+    <t>2021-08-31</t>
+  </si>
+  <si>
+    <t>2021-05-31</t>
+  </si>
+  <si>
+    <t>2021-02-28</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>2020-05-31</t>
+  </si>
+  <si>
+    <t>2020-02-29</t>
+  </si>
+  <si>
+    <t>2019-11-30</t>
+  </si>
+  <si>
+    <t>2019-08-31</t>
+  </si>
+  <si>
+    <t>2019-05-31</t>
+  </si>
+  <si>
+    <t>2019-02-28</t>
+  </si>
+  <si>
+    <t>2018-11-30</t>
+  </si>
+  <si>
+    <t>2018-08-31</t>
+  </si>
+  <si>
+    <t>2018-05-31</t>
+  </si>
+  <si>
+    <t>2018-02-28</t>
+  </si>
+  <si>
+    <t>2017-11-30</t>
+  </si>
+  <si>
+    <t>2017-08-31</t>
+  </si>
+  <si>
+    <t>2017-05-31</t>
+  </si>
+  <si>
+    <t>2017-02-28</t>
+  </si>
+  <si>
+    <t>2016-11-30</t>
+  </si>
+  <si>
+    <t>2016-08-31</t>
+  </si>
+  <si>
+    <t>2016-05-31</t>
+  </si>
+  <si>
+    <t>2016-02-29</t>
+  </si>
+  <si>
+    <t>2015-11-30</t>
+  </si>
+  <si>
+    <t>2015-08-31</t>
+  </si>
+  <si>
+    <t>2015-05-31</t>
+  </si>
+  <si>
+    <t>2015-02-28</t>
+  </si>
+  <si>
+    <t>2014-11-30</t>
+  </si>
+  <si>
+    <t>2014-08-31</t>
+  </si>
+  <si>
+    <t>2014-05-31</t>
+  </si>
+  <si>
+    <t>2014-02-28</t>
+  </si>
+  <si>
+    <t>2013-11-30</t>
+  </si>
+  <si>
+    <t>2013-08-31</t>
+  </si>
+  <si>
+    <t>2013-05-31</t>
+  </si>
+  <si>
+    <t>2013-02-28</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -125,9 +245,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -180,12 +297,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -490,147 +604,147 @@
   <sheetData>
     <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44895</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44804</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44712</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44620</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44530</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44439</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44347</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44255</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44165</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44074</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43982</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43890</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43799</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43708</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43616</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43524</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43434</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43343</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43251</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43159</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43069</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42978</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42886</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42794</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42704</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42613</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42521</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42429</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42338</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42247</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42155</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42063</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41973</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41882</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41790</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41698</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41608</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41517</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41425</v>
-      </c>
-      <c r="AO1" s="2">
-        <v>41333</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:41">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>1320000000</v>
+        <v>1319900000</v>
       </c>
       <c r="C2">
-        <v>1290000000</v>
+        <v>1290100000</v>
       </c>
       <c r="D2">
-        <v>1274000000</v>
+        <v>1274200000</v>
       </c>
       <c r="E2">
-        <v>1409000000</v>
+        <v>1409300000</v>
       </c>
       <c r="F2">
-        <v>1065000000</v>
+        <v>1064700000</v>
       </c>
       <c r="G2">
         <v>1190400000</v>
@@ -739,23 +853,23 @@
       </c>
     </row>
     <row r="3" spans="1:41">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
-        <v>1392000000</v>
+        <v>1391600000</v>
       </c>
       <c r="C3">
-        <v>1373000000</v>
+        <v>1373300000</v>
       </c>
       <c r="D3">
-        <v>1318000000</v>
+        <v>1318200000</v>
       </c>
       <c r="E3">
-        <v>1205000000</v>
+        <v>1204700000</v>
       </c>
       <c r="F3">
-        <v>1372000000</v>
+        <v>1371500000</v>
       </c>
       <c r="G3">
         <v>1084500000</v>
@@ -864,23 +978,23 @@
       </c>
     </row>
     <row r="4" spans="1:41">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
-        <v>3487000000</v>
+        <v>3132700000</v>
       </c>
       <c r="C4">
-        <v>3422000000</v>
+        <v>3135800000</v>
       </c>
       <c r="D4">
-        <v>3989000000</v>
+        <v>3682900000</v>
       </c>
       <c r="E4">
-        <v>4623000000</v>
+        <v>4304100000</v>
       </c>
       <c r="F4">
-        <v>4196000000</v>
+        <v>3874600000</v>
       </c>
       <c r="G4">
         <v>3781700000</v>
@@ -989,23 +1103,23 @@
       </c>
     </row>
     <row r="5" spans="1:41">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
-        <v>6198000000</v>
+        <v>6198200000</v>
       </c>
       <c r="C5">
-        <v>6085000000</v>
+        <v>6085400000</v>
       </c>
       <c r="D5">
-        <v>6582000000</v>
+        <v>6581600000</v>
       </c>
       <c r="E5">
-        <v>7237000000</v>
+        <v>7237300000</v>
       </c>
       <c r="F5">
-        <v>6632000000</v>
+        <v>6632400000</v>
       </c>
       <c r="G5">
         <v>6317300000</v>
@@ -1114,23 +1228,23 @@
       </c>
     </row>
     <row r="6" spans="1:41">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
-        <v>464000000</v>
+        <v>393000000</v>
       </c>
       <c r="C6">
-        <v>473000000</v>
+        <v>398100000</v>
       </c>
       <c r="D6">
-        <v>480000000</v>
+        <v>401300000</v>
       </c>
       <c r="E6">
-        <v>484000000</v>
+        <v>399500000</v>
       </c>
       <c r="F6">
-        <v>496000000</v>
+        <v>398600000</v>
       </c>
       <c r="G6">
         <v>395400000</v>
@@ -1239,23 +1353,23 @@
       </c>
     </row>
     <row r="7" spans="1:41">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
-        <v>14000000</v>
+        <v>3900000</v>
       </c>
       <c r="C7">
-        <v>37000000</v>
+        <v>3900000</v>
       </c>
       <c r="D7">
-        <v>31000000</v>
+        <v>5000000</v>
       </c>
       <c r="E7">
-        <v>31000000</v>
+        <v>5100000</v>
       </c>
       <c r="F7">
-        <v>37000000</v>
+        <v>7000000</v>
       </c>
       <c r="G7">
         <v>7100000</v>
@@ -1364,23 +1478,23 @@
       </c>
     </row>
     <row r="8" spans="1:41">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
-        <v>2034000000</v>
+        <v>2033900000</v>
       </c>
       <c r="C8">
-        <v>2038000000</v>
+        <v>2037800000</v>
       </c>
       <c r="D8">
-        <v>2056000000</v>
+        <v>2056100000</v>
       </c>
       <c r="E8">
-        <v>2067000000</v>
+        <v>2066600000</v>
       </c>
       <c r="F8">
-        <v>2078000000</v>
+        <v>2078200000</v>
       </c>
       <c r="G8">
         <v>2076700000</v>
@@ -1489,8 +1603,8 @@
       </c>
     </row>
     <row r="9" spans="1:41">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="AH9">
         <v>38700000</v>
@@ -1518,23 +1632,23 @@
       </c>
     </row>
     <row r="10" spans="1:41">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
-        <v>504000000</v>
+        <v>71000000</v>
       </c>
       <c r="C10">
-        <v>493000000</v>
+        <v>84900000</v>
       </c>
       <c r="D10">
-        <v>487000000</v>
+        <v>79200000</v>
       </c>
       <c r="E10">
-        <v>466000000</v>
+        <v>77100000</v>
       </c>
       <c r="F10">
-        <v>445000000</v>
+        <v>80600000</v>
       </c>
       <c r="G10">
         <v>79200000</v>
@@ -1643,8 +1757,8 @@
       </c>
     </row>
     <row r="11" spans="1:41">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
         <v>3016100000</v>
@@ -1768,23 +1882,23 @@
       </c>
     </row>
     <row r="12" spans="1:41">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
-        <v>9214000000</v>
+        <v>9214300000</v>
       </c>
       <c r="C12">
-        <v>9126000000</v>
+        <v>9125900000</v>
       </c>
       <c r="D12">
-        <v>9796000000</v>
+        <v>9635200000</v>
       </c>
       <c r="E12">
-        <v>10284000000</v>
+        <v>10283700000</v>
       </c>
       <c r="F12">
-        <v>9688000000</v>
+        <v>9688100000</v>
       </c>
       <c r="G12">
         <v>9367300000</v>
@@ -1893,23 +2007,23 @@
       </c>
     </row>
     <row r="13" spans="1:41">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
-        <v>87000000</v>
+        <v>86700000</v>
       </c>
       <c r="C13">
-        <v>85000000</v>
+        <v>84700000</v>
       </c>
       <c r="D13">
-        <v>106000000</v>
+        <v>105700000</v>
       </c>
       <c r="E13">
-        <v>111000000</v>
+        <v>111400000</v>
       </c>
       <c r="F13">
-        <v>86000000</v>
+        <v>85900000</v>
       </c>
       <c r="G13">
         <v>79000000</v>
@@ -2018,8 +2132,8 @@
       </c>
     </row>
     <row r="14" spans="1:41">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
         <v>915800000</v>
@@ -2143,23 +2257,23 @@
       </c>
     </row>
     <row r="15" spans="1:41">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
-        <v>10000000</v>
+        <v>10100000</v>
       </c>
       <c r="C15">
-        <v>10000000</v>
+        <v>10300000</v>
       </c>
       <c r="D15">
-        <v>34000000</v>
+        <v>8700000</v>
       </c>
       <c r="E15">
-        <v>9000000</v>
+        <v>8700000</v>
       </c>
       <c r="F15">
-        <v>9000000</v>
+        <v>8900000</v>
       </c>
       <c r="G15">
         <v>7100000</v>
@@ -2217,8 +2331,8 @@
       </c>
     </row>
     <row r="16" spans="1:41">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C16">
         <v>40000000</v>
@@ -2276,8 +2390,8 @@
       </c>
     </row>
     <row r="17" spans="1:41">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
         <v>44800000</v>
@@ -2374,8 +2488,8 @@
       </c>
     </row>
     <row r="18" spans="1:41">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="AD18">
         <v>15800000</v>
@@ -2412,23 +2526,23 @@
       </c>
     </row>
     <row r="19" spans="1:41">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
-        <v>4657000000</v>
+        <v>3696500000</v>
       </c>
       <c r="C19">
-        <v>4567000000</v>
+        <v>3672700000</v>
       </c>
       <c r="D19">
-        <v>5130000000</v>
+        <v>4207600000</v>
       </c>
       <c r="E19">
-        <v>5568000000</v>
+        <v>4717500000</v>
       </c>
       <c r="F19">
-        <v>5127000000</v>
+        <v>4247300000</v>
       </c>
       <c r="G19">
         <v>4064700000</v>
@@ -2537,23 +2651,23 @@
       </c>
     </row>
     <row r="20" spans="1:41">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
-        <v>4754000000</v>
+        <v>4753900000</v>
       </c>
       <c r="C20">
-        <v>4702000000</v>
+        <v>4702200000</v>
       </c>
       <c r="D20">
-        <v>5269000000</v>
+        <v>5269200000</v>
       </c>
       <c r="E20">
-        <v>5688000000</v>
+        <v>5687900000</v>
       </c>
       <c r="F20">
-        <v>5222000000</v>
+        <v>5221900000</v>
       </c>
       <c r="G20">
         <v>4957900000</v>
@@ -2662,23 +2776,23 @@
       </c>
     </row>
     <row r="21" spans="1:41">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
-        <v>865000000</v>
+        <v>797900000</v>
       </c>
       <c r="C21">
-        <v>869000000</v>
+        <v>797800000</v>
       </c>
       <c r="D21">
-        <v>873000000</v>
+        <v>797700000</v>
       </c>
       <c r="E21">
-        <v>877000000</v>
+        <v>797600000</v>
       </c>
       <c r="F21">
-        <v>884000000</v>
+        <v>797500000</v>
       </c>
       <c r="G21">
         <v>797400000</v>
@@ -2715,23 +2829,23 @@
       </c>
     </row>
     <row r="22" spans="1:41">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
-        <v>130000000</v>
+        <v>129800000</v>
       </c>
       <c r="C22">
-        <v>157000000</v>
+        <v>157100000</v>
       </c>
       <c r="D22">
-        <v>166000000</v>
+        <v>165500000</v>
       </c>
       <c r="E22">
-        <v>189000000</v>
+        <v>188500000</v>
       </c>
       <c r="F22">
-        <v>208000000</v>
+        <v>207600000</v>
       </c>
       <c r="G22">
         <v>225700000</v>
@@ -2840,23 +2954,23 @@
       </c>
     </row>
     <row r="23" spans="1:41">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
-        <v>261000000</v>
+        <v>260600000</v>
       </c>
       <c r="C23">
-        <v>260000000</v>
+        <v>260400000</v>
       </c>
       <c r="D23">
-        <v>243000000</v>
+        <v>242800000</v>
       </c>
       <c r="E23">
-        <v>244000000</v>
+        <v>244400000</v>
       </c>
       <c r="F23">
-        <v>255000000</v>
+        <v>254600000</v>
       </c>
       <c r="G23">
         <v>250200000</v>
@@ -2965,8 +3079,8 @@
       </c>
     </row>
     <row r="24" spans="1:41">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
         <v>1255100000</v>
@@ -3090,23 +3204,23 @@
       </c>
     </row>
     <row r="25" spans="1:41">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
         <v>6009000000</v>
       </c>
       <c r="C25">
-        <v>5989000000</v>
+        <v>5988500000</v>
       </c>
       <c r="D25">
-        <v>6711000000</v>
+        <v>6550000000</v>
       </c>
       <c r="E25">
-        <v>6998000000</v>
+        <v>6997700000</v>
       </c>
       <c r="F25">
-        <v>6568000000</v>
+        <v>6568300000</v>
       </c>
       <c r="G25">
         <v>6323800000</v>
@@ -3215,8 +3329,8 @@
       </c>
     </row>
     <row r="26" spans="1:41">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
         <v>1588600000</v>
@@ -3340,23 +3454,23 @@
       </c>
     </row>
     <row r="27" spans="1:41">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
-        <v>4000000</v>
+        <v>3600000</v>
       </c>
       <c r="C27">
-        <v>4000000</v>
+        <v>3600000</v>
       </c>
       <c r="D27">
-        <v>4000000</v>
+        <v>3600000</v>
       </c>
       <c r="E27">
-        <v>4000000</v>
+        <v>3600000</v>
       </c>
       <c r="F27">
-        <v>4000000</v>
+        <v>3600000</v>
       </c>
       <c r="G27">
         <v>3600000</v>
@@ -3465,23 +3579,23 @@
       </c>
     </row>
     <row r="28" spans="1:41">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
-        <v>1811000000</v>
+        <v>1811400000</v>
       </c>
       <c r="C28">
-        <v>1736000000</v>
+        <v>1736300000</v>
       </c>
       <c r="D28">
-        <v>1670000000</v>
+        <v>1669600000</v>
       </c>
       <c r="E28">
-        <v>1799000000</v>
+        <v>1798500000</v>
       </c>
       <c r="F28">
-        <v>1607000000</v>
+        <v>1606900000</v>
       </c>
       <c r="G28">
         <v>1513300000</v>
@@ -3590,23 +3704,23 @@
       </c>
     </row>
     <row r="29" spans="1:41">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
-        <v>3205000000</v>
+        <v>3205300000</v>
       </c>
       <c r="C29">
-        <v>3137000000</v>
+        <v>3137400000</v>
       </c>
       <c r="D29">
-        <v>3085000000</v>
+        <v>3085200000</v>
       </c>
       <c r="E29">
         <v>3286000000</v>
       </c>
       <c r="F29">
-        <v>3120000000</v>
+        <v>3119800000</v>
       </c>
       <c r="G29">
         <v>3043500000</v>
@@ -3715,23 +3829,23 @@
       </c>
     </row>
     <row r="30" spans="1:41">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
-        <v>3205000000</v>
+        <v>3205300000</v>
       </c>
       <c r="C30">
-        <v>3137000000</v>
+        <v>3137400000</v>
       </c>
       <c r="D30">
-        <v>3085000000</v>
+        <v>3085200000</v>
       </c>
       <c r="E30">
         <v>3286000000</v>
       </c>
       <c r="F30">
-        <v>3120000000</v>
+        <v>3119800000</v>
       </c>
       <c r="G30">
         <v>3043500000</v>
@@ -3840,8 +3954,8 @@
       </c>
     </row>
     <row r="31" spans="1:41">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
         <v>9214300000</v>
@@ -3965,8 +4079,8 @@
       </c>
     </row>
     <row r="32" spans="1:41">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
         <v>360500000</v>
@@ -4090,8 +4204,8 @@
       </c>
     </row>
     <row r="33" spans="1:41">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
         <v>1171400000</v>
@@ -4215,23 +4329,23 @@
       </c>
     </row>
     <row r="34" spans="1:41">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
-        <v>-445000000</v>
+        <v>-511900000</v>
       </c>
       <c r="C34">
-        <v>-411000000</v>
+        <v>-482000000</v>
       </c>
       <c r="D34">
-        <v>-367000000</v>
+        <v>-467800000</v>
       </c>
       <c r="E34">
-        <v>-523000000</v>
+        <v>-603000000</v>
       </c>
       <c r="F34">
-        <v>-172000000</v>
+        <v>-258300000</v>
       </c>
       <c r="G34">
         <v>-385900000</v>
@@ -4340,23 +4454,23 @@
       </c>
     </row>
     <row r="35" spans="1:41">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
-        <v>875000000</v>
+        <v>808000000</v>
       </c>
       <c r="C35">
-        <v>879000000</v>
+        <v>808100000</v>
       </c>
       <c r="D35">
-        <v>907000000</v>
+        <v>806400000</v>
       </c>
       <c r="E35">
-        <v>886000000</v>
+        <v>806300000</v>
       </c>
       <c r="F35">
-        <v>893000000</v>
+        <v>806400000</v>
       </c>
       <c r="G35">
         <v>804500000</v>
